--- a/data/trans_orig/P1430-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>13434</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7256</v>
+        <v>7216</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23977</v>
+        <v>23867</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01286851790788247</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006950829967041446</v>
+        <v>0.006912622900156689</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02296771313076153</v>
+        <v>0.02286243141817206</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -763,19 +763,19 @@
         <v>7319</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3104</v>
+        <v>3120</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13847</v>
+        <v>14611</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006542323147338957</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002775040291809874</v>
+        <v>0.002789211026600294</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01237810433008873</v>
+        <v>0.01306151860592102</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -784,19 +784,19 @@
         <v>20752</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13376</v>
+        <v>12715</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32352</v>
+        <v>31965</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009596134411484967</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006185353070337866</v>
+        <v>0.00587950364595012</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01496002238447952</v>
+        <v>0.01478092540390043</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>1030501</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1019958</v>
+        <v>1020068</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1036679</v>
+        <v>1036719</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9871314820921175</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9770322868692385</v>
+        <v>0.977137568581828</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9930491700329586</v>
+        <v>0.9930873770998433</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1023</v>
@@ -834,19 +834,19 @@
         <v>1111334</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1104806</v>
+        <v>1104042</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1115549</v>
+        <v>1115533</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9934576768526611</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9876218956699112</v>
+        <v>0.9869384813940794</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9972249597081901</v>
+        <v>0.9972107889733997</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1989</v>
@@ -855,19 +855,19 @@
         <v>2141836</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2130236</v>
+        <v>2130623</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2149212</v>
+        <v>2149873</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.990403865588515</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9850399776155204</v>
+        <v>0.9852190745960996</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.993814646929662</v>
+        <v>0.9941204963540498</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>5033</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1953</v>
+        <v>1998</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11191</v>
+        <v>11432</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005151344559617386</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001998966004958479</v>
+        <v>0.002045235213231952</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01145399804433434</v>
+        <v>0.01170039214817429</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -980,19 +980,19 @@
         <v>6412</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3025</v>
+        <v>2133</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14009</v>
+        <v>13649</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005869698621707196</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002769204548030368</v>
+        <v>0.001953026302876292</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01282499158222433</v>
+        <v>0.01249507405355314</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -1001,19 +1001,19 @@
         <v>11445</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6400</v>
+        <v>6192</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19633</v>
+        <v>20124</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005530525765703295</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003092547393115513</v>
+        <v>0.002992194606069326</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009487188344876392</v>
+        <v>0.009724489292364033</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>972040</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>965882</v>
+        <v>965641</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>975120</v>
+        <v>975075</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9948486554403826</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9885460019556657</v>
+        <v>0.9882996078518251</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9980010339950415</v>
+        <v>0.997954764786768</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1013</v>
@@ -1051,19 +1051,19 @@
         <v>1085915</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1078318</v>
+        <v>1078678</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1089302</v>
+        <v>1090194</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9941303013782928</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9871750084177757</v>
+        <v>0.9875049259464469</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9972307954519696</v>
+        <v>0.9980469736971237</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1932</v>
@@ -1072,19 +1072,19 @@
         <v>2057955</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2049767</v>
+        <v>2049276</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2063000</v>
+        <v>2063208</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9944694742342967</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9905128116551236</v>
+        <v>0.9902755107076362</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9969074526068845</v>
+        <v>0.9970078053939306</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>5334</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2035</v>
+        <v>2024</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15115</v>
+        <v>13692</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006026358505574517</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00229907715148581</v>
+        <v>0.002287133415780835</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01707681964920922</v>
+        <v>0.01546902755322779</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1197,19 +1197,19 @@
         <v>5372</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2098</v>
+        <v>2104</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11942</v>
+        <v>12916</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006133677661642408</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002395243850076991</v>
+        <v>0.002402312919353157</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01363520659544046</v>
+        <v>0.01474717374341107</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1218,19 +1218,19 @@
         <v>10706</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5265</v>
+        <v>5150</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20384</v>
+        <v>20207</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006079734099274814</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002990005215905347</v>
+        <v>0.00292447811332052</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01157589273196304</v>
+        <v>0.01147520098970107</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>879781</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>870000</v>
+        <v>871423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>883080</v>
+        <v>883091</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9939736414944255</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9829231803507907</v>
+        <v>0.9845309724467723</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9977009228485142</v>
+        <v>0.9977128665842191</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>816</v>
@@ -1268,19 +1268,19 @@
         <v>870424</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>863854</v>
+        <v>862880</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>873698</v>
+        <v>873692</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9938663223383576</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9863647934045601</v>
+        <v>0.9852528262565891</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9976047561499231</v>
+        <v>0.9975976870806468</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1642</v>
@@ -1289,19 +1289,19 @@
         <v>1750205</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1740527</v>
+        <v>1740704</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1755646</v>
+        <v>1755761</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9939202659007252</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.988424107268037</v>
+        <v>0.988524799010299</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9970099947840946</v>
+        <v>0.9970755218866795</v>
       </c>
     </row>
     <row r="12">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6504</v>
+        <v>6270</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002249391573481485</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01293055304037279</v>
+        <v>0.0124651590225899</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7289</v>
+        <v>6475</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00458775975015123</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01610050704196036</v>
+        <v>0.01430299930430712</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1435,19 +1435,19 @@
         <v>3209</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8705</v>
+        <v>9493</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003357059214885802</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001074477316921252</v>
+        <v>0.001070331251976593</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009107996629813103</v>
+        <v>0.009931940333337021</v>
       </c>
     </row>
     <row r="14">
@@ -1464,7 +1464,7 @@
         <v>501892</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>496519</v>
+        <v>496753</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>503023</v>
@@ -1473,7 +1473,7 @@
         <v>0.9977506084265185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9870694469596271</v>
+        <v>0.9875348409774121</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>450659</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>445447</v>
+        <v>446261</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>452736</v>
@@ -1494,7 +1494,7 @@
         <v>0.9954122402498488</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9838994929580398</v>
+        <v>0.9856970006956933</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1506,19 +1506,19 @@
         <v>952549</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>947053</v>
+        <v>946265</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>954731</v>
+        <v>954735</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9966429407851142</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9908920033701867</v>
+        <v>0.9900680596666631</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9989255226830787</v>
+        <v>0.9989296687480234</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>24933</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16306</v>
+        <v>16409</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39345</v>
+        <v>37872</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007313459888482087</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004782923091169674</v>
+        <v>0.004813123777313712</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01154096282067845</v>
+        <v>0.01110906059634062</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -1631,19 +1631,19 @@
         <v>21179</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13522</v>
+        <v>12630</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32825</v>
+        <v>31757</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005983625605371307</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003820363168415119</v>
+        <v>0.003568221129904705</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009273770995679434</v>
+        <v>0.008972034190830123</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1652,19 +1652,19 @@
         <v>46112</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33460</v>
+        <v>33374</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61797</v>
+        <v>61469</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006636068030519028</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004815317534199703</v>
+        <v>0.004802982801950058</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008893360490059572</v>
+        <v>0.008846235230022722</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3384212</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3369800</v>
+        <v>3371273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3392839</v>
+        <v>3392736</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9926865401115179</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9884590371793218</v>
+        <v>0.9888909394036594</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9952170769088305</v>
+        <v>0.9951868762226863</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3262</v>
@@ -1702,19 +1702,19 @@
         <v>3518332</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3506686</v>
+        <v>3507754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3525989</v>
+        <v>3526881</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9940163743946286</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9907262290043205</v>
+        <v>0.9910279658091699</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9961796368315848</v>
+        <v>0.9964317788700953</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6433</v>
@@ -1723,19 +1723,19 @@
         <v>6902545</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6886860</v>
+        <v>6887188</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6915197</v>
+        <v>6915283</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9933639319694809</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9911066395099404</v>
+        <v>0.9911537647699773</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9951846824658002</v>
+        <v>0.99519701719805</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>12128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6580</v>
+        <v>6192</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22701</v>
+        <v>21319</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01075205497844671</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005833269560499406</v>
+        <v>0.005489787096464623</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02012537816163521</v>
+        <v>0.0189002589876642</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2088,19 +2088,19 @@
         <v>3009</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7983</v>
+        <v>9089</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002388737392573922</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0007295986265021054</v>
+        <v>0.0007312477418627833</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.006337759570422105</v>
+        <v>0.007216225308224671</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -2109,19 +2109,19 @@
         <v>15137</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8865</v>
+        <v>8909</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25598</v>
+        <v>25413</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00633997085851614</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003712997002659683</v>
+        <v>0.003731634495928559</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01072133605154691</v>
+        <v>0.01064409620823714</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>1115869</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1105296</v>
+        <v>1106678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1121417</v>
+        <v>1121805</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9892479450215533</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9798746218383648</v>
+        <v>0.9810997410123358</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9941667304395003</v>
+        <v>0.9945102129035353</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1185</v>
@@ -2159,19 +2159,19 @@
         <v>1256552</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1251578</v>
+        <v>1250472</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1258642</v>
+        <v>1258640</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9976112626074261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.993662240429578</v>
+        <v>0.992783774691775</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9992704013734979</v>
+        <v>0.9992687522581372</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2240</v>
@@ -2180,19 +2180,19 @@
         <v>2372421</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2361960</v>
+        <v>2362145</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2378693</v>
+        <v>2378649</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9936600291414839</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9892786639484531</v>
+        <v>0.989355903791763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9962870029973404</v>
+        <v>0.9962683655040715</v>
       </c>
     </row>
     <row r="6">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10357</v>
+        <v>10581</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003100422920246336</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0113958203827247</v>
+        <v>0.0116422905678363</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2305,19 +2305,19 @@
         <v>3323</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9003</v>
+        <v>8882</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003301384526407623</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0009641468247499898</v>
+        <v>0.0009672159287550408</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.00894514788428589</v>
+        <v>0.008824664328017776</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -2326,19 +2326,19 @@
         <v>6141</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2811</v>
+        <v>1971</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15668</v>
+        <v>13967</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00320602668164077</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001467659293413458</v>
+        <v>0.001029273047706794</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008180561253016734</v>
+        <v>0.00729231268524537</v>
       </c>
     </row>
     <row r="8">
@@ -2355,7 +2355,7 @@
         <v>906007</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>898468</v>
+        <v>898244</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>908825</v>
@@ -2364,7 +2364,7 @@
         <v>0.9968995770797536</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9886041796172752</v>
+        <v>0.9883577094321634</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2376,19 +2376,19 @@
         <v>1003152</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>997472</v>
+        <v>997593</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1005505</v>
+        <v>1005502</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9966986154735924</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9910548521157141</v>
+        <v>0.9911753356719826</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.99903585317525</v>
+        <v>0.999032784071245</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1827</v>
@@ -2397,19 +2397,19 @@
         <v>1909159</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1899632</v>
+        <v>1901333</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1912489</v>
+        <v>1913329</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9967939733183593</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9918194387469822</v>
+        <v>0.9927076873147546</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9985323407065865</v>
+        <v>0.9989707269522933</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>4285</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11203</v>
+        <v>10073</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005201881997204568</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001303812262413576</v>
+        <v>0.001311477733873776</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01360032184794056</v>
+        <v>0.01222860046710796</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -2522,19 +2522,19 @@
         <v>5287</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1949</v>
+        <v>1869</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11862</v>
+        <v>11735</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006856791032949568</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002527462250596604</v>
+        <v>0.002424478702779372</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0153846576677636</v>
+        <v>0.01521946014047142</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -2543,19 +2543,19 @@
         <v>9572</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4592</v>
+        <v>4548</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18205</v>
+        <v>17695</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006001993365482437</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00287955611749436</v>
+        <v>0.002851717912868902</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01141502859807299</v>
+        <v>0.01109503040899819</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>819474</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>812556</v>
+        <v>813686</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>822685</v>
+        <v>822679</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9947981180027954</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9863996781520589</v>
+        <v>0.9877713995328921</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9986961877375864</v>
+        <v>0.9986885222661261</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>723</v>
@@ -2593,19 +2593,19 @@
         <v>765772</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>759197</v>
+        <v>759324</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>769110</v>
+        <v>769190</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9931432089670504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9846153423322365</v>
+        <v>0.9847805398595287</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9974725377494034</v>
+        <v>0.9975755212972207</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1506</v>
@@ -2614,19 +2614,19 @@
         <v>1585246</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1576613</v>
+        <v>1577123</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1590226</v>
+        <v>1590270</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9939980066345175</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9885849714019267</v>
+        <v>0.9889049695910017</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9971204438825056</v>
+        <v>0.997148282087131</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>5533</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1751</v>
+        <v>1924</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13108</v>
+        <v>12634</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01091872958595292</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003455605674961445</v>
+        <v>0.003797823447443852</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02586903072490561</v>
+        <v>0.02493470875911647</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11331</v>
+        <v>11888</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004290897406654757</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02313824905607082</v>
+        <v>0.02427569948419352</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -2760,19 +2760,19 @@
         <v>7634</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2716</v>
+        <v>2931</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17579</v>
+        <v>17677</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007661364841783538</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002725533683055332</v>
+        <v>0.002941413175697524</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01764248063887193</v>
+        <v>0.01774062349288106</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>501168</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493593</v>
+        <v>494067</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>504950</v>
+        <v>504777</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.989081270414047</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9741309692750945</v>
+        <v>0.975065291240883</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9965443943250386</v>
+        <v>0.9962021765525561</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>454</v>
@@ -2810,7 +2810,7 @@
         <v>487597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>478367</v>
+        <v>477810</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>489698</v>
@@ -2819,7 +2819,7 @@
         <v>0.9957091025933452</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9768617509439286</v>
+        <v>0.9757243005158058</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2831,19 +2831,19 @@
         <v>988764</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>978819</v>
+        <v>978721</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>993682</v>
+        <v>993467</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9923386351582164</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9823575193611279</v>
+        <v>0.982259376507119</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9972744663169446</v>
+        <v>0.9970585868243025</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>24764</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14854</v>
+        <v>15861</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36309</v>
+        <v>37216</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007354197332017595</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004411127658387201</v>
+        <v>0.004710185861759168</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01078286064559483</v>
+        <v>0.0110523196977947</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -2956,19 +2956,19 @@
         <v>13720</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7437</v>
+        <v>6616</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23144</v>
+        <v>23910</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003890150373579067</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002108769696412413</v>
+        <v>0.001875937937788803</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.006562332907646744</v>
+        <v>0.00677965408825737</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -2977,19 +2977,19 @@
         <v>38483</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25988</v>
+        <v>26590</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53325</v>
+        <v>54619</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005582099548053151</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003769553354154779</v>
+        <v>0.003856908911869305</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007734887588525006</v>
+        <v>0.007922636918556549</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3342518</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3330973</v>
+        <v>3330066</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3352428</v>
+        <v>3351421</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9926458026679824</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9892171393544053</v>
+        <v>0.9889476803022055</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9955888723416129</v>
+        <v>0.995289814138241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3310</v>
@@ -3027,19 +3027,19 @@
         <v>3513072</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3503648</v>
+        <v>3502882</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3519355</v>
+        <v>3520176</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9961098496264209</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9934376670923534</v>
+        <v>0.9932203459117422</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9978912303035876</v>
+        <v>0.998124062062211</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6493</v>
@@ -3048,19 +3048,19 @@
         <v>6855592</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6840750</v>
+        <v>6839456</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6868087</v>
+        <v>6867485</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9944179004519469</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.992265112411475</v>
+        <v>0.9920773630814435</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9962304466458451</v>
+        <v>0.9961430910881308</v>
       </c>
     </row>
     <row r="18">
